--- a/UiUx/TypeScale Tool.xlsx
+++ b/UiUx/TypeScale Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\UiUx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dungbubu.github.io\UiUx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50B0A8E-6924-40EE-AAF8-4FA32E6DE057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BEDB6-2D88-499F-B9F2-11134FCAC81E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="684" windowWidth="17280" windowHeight="9072" xr2:uid="{2CB6619A-05E5-4546-B924-457620CB304F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2CB6619A-05E5-4546-B924-457620CB304F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Line-height</t>
   </si>
@@ -83,13 +83,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -97,7 +97,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -106,7 +106,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,18 +148,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -475,25 +475,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE0FBEE-B6CE-4ED6-BB66-7F41F61E66D3}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -598,7 +598,7 @@
         <v>1.5714285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26</v>
       </c>
@@ -663,7 +663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>30</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -781,7 +781,7 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>36</v>
       </c>
@@ -807,7 +807,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>46</v>
       </c>
@@ -833,73 +833,119 @@
         <v>1.0952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3">
         <f>I14</f>
-        <v>1.0769230769230769</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ref="E14" si="8">CONCATENATE(D14," / ",B14,"px"," | ",A14,"px"," (",C14,")")</f>
-        <v>Regular / 52px | 56px (1,07692307692308)</v>
+        <v>Regular / 48px | 52px (1.08333333333333)</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14" si="9">A14/B14</f>
-        <v>1.0769230769230769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3">
         <f>I15</f>
-        <v>1.0740740740740742</v>
+        <v>1.0769230769230769</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:E16" si="10">CONCATENATE(D15," / ",B15,"px"," | ",A15,"px"," (",C15,")")</f>
-        <v>Regular / 54px | 58px (1,07407407407407)</v>
+        <f t="shared" ref="E15:E17" si="10">CONCATENATE(D15," / ",B15,"px"," | ",A15,"px"," (",C15,")")</f>
+        <v>Regular / 52px | 56px (1.07692307692308)</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15:I16" si="11">A15/B15</f>
-        <v>1.0740740740740742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I15:I17" si="11">A15/B15</f>
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3">
         <f>I16</f>
-        <v>1.0344827586206897</v>
+        <v>1.0740740740740742</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="10"/>
-        <v>Regular / 58px | 60px (1,03448275862069)</v>
+        <v>Regular / 54px | 58px (1.07407407407407)</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="11"/>
+        <v>1.0740740740740742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3">
+        <f>I17</f>
         <v>1.0344827586206897</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="10"/>
+        <v>Regular / 58px | 60px (1.03448275862069)</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0344827586206897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>140</v>
+      </c>
+      <c r="B18">
+        <v>158</v>
+      </c>
+      <c r="C18" s="3">
+        <f>I18</f>
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ref="E18" si="12">CONCATENATE(D18," / ",B18,"px"," | ",A18,"px"," (",C18,")")</f>
+        <v>Regular / 158px | 140px (0.886075949367089)</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" ref="I18" si="13">A18/B18</f>
+        <v>0.88607594936708856</v>
       </c>
     </row>
   </sheetData>

--- a/UiUx/TypeScale Tool.xlsx
+++ b/UiUx/TypeScale Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dungbubu.github.io\UiUx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\dungbubu.github.io\UiUx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BEDB6-2D88-499F-B9F2-11134FCAC81E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEC7E49-EE8B-4672-93F9-25890C612645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2CB6619A-05E5-4546-B924-457620CB304F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2CB6619A-05E5-4546-B924-457620CB304F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,25 +475,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE0FBEE-B6CE-4ED6-BB66-7F41F61E66D3}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20</v>
       </c>
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>22</v>
       </c>
@@ -598,7 +598,7 @@
         <v>1.5714285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>26</v>
       </c>
@@ -663,7 +663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>26</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>30</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32</v>
       </c>
@@ -781,7 +781,7 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>36</v>
       </c>
@@ -807,7 +807,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>46</v>
       </c>
@@ -815,25 +815,25 @@
         <v>42</v>
       </c>
       <c r="C13" s="5">
-        <f>I13</f>
+        <f t="shared" ref="C13:C18" si="6">I13</f>
         <v>1.0952380952380953</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" ref="E13" si="6">CONCATENATE(D13," / ",B13,"px"," | ",A13,"px"," (",C13,")")</f>
+        <f t="shared" ref="E13" si="7">CONCATENATE(D13," / ",B13,"px"," | ",A13,"px"," (",C13,")")</f>
         <v>Regular / 42px | 46px (1,0952380952381)</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5">
-        <f t="shared" ref="I13" si="7">A13/B13</f>
+        <f t="shared" ref="I13" si="8">A13/B13</f>
         <v>1.0952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>52</v>
       </c>
@@ -841,22 +841,22 @@
         <v>48</v>
       </c>
       <c r="C14" s="3">
-        <f>I14</f>
+        <f t="shared" si="6"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14" si="8">CONCATENATE(D14," / ",B14,"px"," | ",A14,"px"," (",C14,")")</f>
+        <f t="shared" ref="E14" si="9">CONCATENATE(D14," / ",B14,"px"," | ",A14,"px"," (",C14,")")</f>
         <v>Regular / 48px | 52px (1.08333333333333)</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" ref="I14" si="9">A14/B14</f>
+        <f t="shared" ref="I14" si="10">A14/B14</f>
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>56</v>
       </c>
@@ -864,22 +864,22 @@
         <v>52</v>
       </c>
       <c r="C15" s="3">
-        <f>I15</f>
+        <f t="shared" si="6"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:E17" si="10">CONCATENATE(D15," / ",B15,"px"," | ",A15,"px"," (",C15,")")</f>
+        <f t="shared" ref="E15:E17" si="11">CONCATENATE(D15," / ",B15,"px"," | ",A15,"px"," (",C15,")")</f>
         <v>Regular / 52px | 56px (1.07692307692308)</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15:I17" si="11">A15/B15</f>
+        <f t="shared" ref="I15:I17" si="12">A15/B15</f>
         <v>1.0769230769230769</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>58</v>
       </c>
@@ -887,22 +887,22 @@
         <v>54</v>
       </c>
       <c r="C16" s="3">
-        <f>I16</f>
+        <f t="shared" si="6"/>
         <v>1.0740740740740742</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Regular / 54px | 58px (1.07407407407407)</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0740740740740742</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>60</v>
       </c>
@@ -910,22 +910,22 @@
         <v>58</v>
       </c>
       <c r="C17" s="3">
-        <f>I17</f>
+        <f t="shared" si="6"/>
         <v>1.0344827586206897</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Regular / 58px | 60px (1.03448275862069)</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0344827586206897</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>140</v>
       </c>
@@ -933,19 +933,67 @@
         <v>158</v>
       </c>
       <c r="C18" s="3">
-        <f>I18</f>
+        <f t="shared" si="6"/>
         <v>0.88607594936708856</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" ref="E18" si="12">CONCATENATE(D18," / ",B18,"px"," | ",A18,"px"," (",C18,")")</f>
+        <f t="shared" ref="E18" si="13">CONCATENATE(D18," / ",B18,"px"," | ",A18,"px"," (",C18,")")</f>
         <v>Regular / 158px | 140px (0.886075949367089)</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" ref="I18" si="13">A18/B18</f>
+        <f t="shared" ref="I18" si="14">A18/B18</f>
         <v>0.88607594936708856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
